--- a/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
+++ b/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
@@ -20,23 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">60TB ZFS backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">60TB ZFS backup 2023.0502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price/ea</t>
   </si>
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtotal</t>
+    <t xml:space="preserve">Subtotal P*Q</t>
   </si>
   <si>
     <t xml:space="preserve">Link</t>
   </si>
   <si>
+    <t xml:space="preserve">Alt</t>
+  </si>
+  <si>
     <t xml:space="preserve">5-drive ext. rack</t>
   </si>
   <si>
@@ -65,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC power supply, 6x SATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ</t>
   </si>
   <si>
     <t xml:space="preserve">PC Power supply, 8x SATA</t>
@@ -95,8 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -180,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +216,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,14 +249,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8030160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -247,7 +269,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4189680" y="2113200"/>
+          <a:off x="4280040" y="2275920"/>
           <a:ext cx="8030160" cy="5794920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -268,17 +290,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,10 +320,13 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>40</v>
@@ -313,12 +339,12 @@
         <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>50</v>
@@ -331,12 +357,12 @@
         <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>34</v>
@@ -349,12 +375,12 @@
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>17</v>
@@ -367,12 +393,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>288</v>
@@ -385,72 +411,93 @@
         <v>1440</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">B7*C7</f>
-        <v>70</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="n">
         <f aca="false">B8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">B9*C9</f>
+        <v>80</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">SUM(D2:D12)</f>
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="456.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <f aca="false">SUM(D2:D13)</f>
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="456.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8"/>
     <hyperlink ref="E6" r:id="rId2" display="https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -459,6 +506,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
+++ b/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
@@ -9,18 +9,41 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Parts list without drives</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">60TB ZFS backup 2023.0502</t>
   </si>
@@ -34,18 +57,27 @@
     <t xml:space="preserve">Subtotal P*Q</t>
   </si>
   <si>
-    <t xml:space="preserve">Link</t>
+    <t xml:space="preserve"> Link / where to buy</t>
   </si>
   <si>
     <t xml:space="preserve">Alt</t>
   </si>
   <si>
-    <t xml:space="preserve">5-drive ext. rack</t>
+    <t xml:space="preserve">Misc Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-drive external rack</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/gp/product/B001LF40KE/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
+    <t xml:space="preserve">5-drive ext. hotswap enclosure (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/404020493983</t>
+  </si>
+  <si>
     <t xml:space="preserve">HBA SAS x8E IT mode pcie</t>
   </si>
   <si>
@@ -58,12 +90,18 @@
     <t xml:space="preserve">https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8</t>
   </si>
   <si>
-    <t xml:space="preserve">Fan for cooling the HBA</t>
+    <t xml:space="preserve">Fan for cooling the HBA (takes up a slot)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/gp/product/B000233ZMU/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
+    <t xml:space="preserve">ALT: Noctua fan for the HBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/gp/product/B071W93333/?tag=hardfocom-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">18TB NAS Drives</t>
   </si>
   <si>
@@ -88,16 +126,61 @@
     <t xml:space="preserve">https://www.amazon.com/gp/product/B07SKX78PV/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
+    <t xml:space="preserve">Refurb PC w/ 4x pcie slot – Dell Optiplex 7040 SFF – 16GB RAM, Quad-core-i5 with HDMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/304041042675?_trkparms=ispr%3D5&amp;hash=item46ca4222f3:g:YVYAAOSwCJVh~cDu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dl.dell.com/topicspdf/optiplex-7040-desktop_owners-manual3_en-us.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZFS Calc</t>
   </si>
   <si>
     <t xml:space="preserve">https://wintelguy.com/zfs-calc.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">RAIDZ1 18000 , 5 drives, slop space, 5% free space, ~60TB usable before compression</t>
+    <t xml:space="preserve">RAIDZ1 18000 , 5 drives, slop space, 5% free space, ~60TiB actual usable space before compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE RAIDZ2 (at least) with 6+ drives is strongly recommended for long-term usage</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts list w/o drives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Parts list for entry-level ZFS backup / fileserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Kingneutron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kneutron/ansitest/tree/master/ZFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful Admin scripts, mostly bash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed 5x18TB drive RAIDZ1 "data migration" storage space - suitable for homelab if temporary storage is needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For longer-term backup solution, go with at least RAIDZ2 at the 6+ drive mark to avoid too many disks failing during rebuild / data loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling the HBA PCIe card:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/DataHoarder/comments/10r0s6b/show_me_your_lsi_sas_hba_fan_mount/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hardforum.com/threads/cooling-suggestions-for-lsi-sas-card-lsi-9207-8i.1957715/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Optiplex 7040 SFF Owners Manual with motherboard info</t>
   </si>
 </sst>
 </file>
@@ -108,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +211,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -136,13 +242,31 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFEEEEEE"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +279,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -165,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,74 +325,205 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Result2" xfId="20"/>
+    <cellStyle name="Excel Built-in Normal" xfId="21"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8030160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5764320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -269,8 +536,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4280040" y="2275920"/>
-          <a:ext cx="8030160" cy="5794920"/>
+          <a:off x="4764600" y="3180960"/>
+          <a:ext cx="8059680" cy="6030720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -290,214 +557,301 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="456.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="114.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="66.05"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="6" t="n">
         <f aca="false">B2*C2</f>
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <f aca="false">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">B3*C3</f>
+      <c r="D4" s="6" t="n">
+        <f aca="false">B4*C4</f>
         <v>50</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">B4*C4</f>
+      <c r="D5" s="6" t="n">
+        <f aca="false">B5*C5</f>
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">B5*C5</f>
+      <c r="D6" s="6" t="n">
+        <f aca="false">B6*C6</f>
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <f aca="false">B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="n">
         <v>288</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C8" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">B6*C6</f>
+      <c r="D8" s="6" t="n">
+        <f aca="false">B8*C8</f>
         <v>1440</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">B7*C7</f>
+      <c r="D9" s="6" t="n">
+        <f aca="false">B9*C9</f>
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1" t="n">
-        <f aca="false">B8*C8</f>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="D10" s="6" t="n">
+        <f aca="false">B10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">B9*C9</f>
+      <c r="D11" s="6" t="n">
+        <f aca="false">B11*C11</f>
         <v>80</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <f aca="false">SUM(D2:D13)</f>
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="456.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">B12*C12</f>
+        <v>170</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <f aca="false">SUM(D2:D16)</f>
+        <v>1871</v>
+      </c>
+      <c r="E17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="19" t="n">
+        <f aca="false">SUM(D2:D12)-D8</f>
+        <v>431</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ"/>
+    <hyperlink ref="E12" r:id="rId5" display="https://www.ebay.com/itm/304041042675?_trkparms=ispr%3D5&amp;hash=item46ca4222f3:g:YVYAAOSwCJVh~cDu"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -506,6 +860,84 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
+++ b/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1-zfs-parts-list" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -26,13 +26,14 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Parts list without drives</t>
         </r>
@@ -43,9 +44,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">60TB ZFS backup 2023.0502</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">60TB ZFS backup 2023.0523</t>
   </si>
   <si>
     <t xml:space="preserve">Price/ea</t>
@@ -78,7 +79,25 @@
     <t xml:space="preserve">https://www.ebay.com/itm/404020493983</t>
   </si>
   <si>
-    <t xml:space="preserve">HBA SAS x8E IT mode pcie</t>
+    <t xml:space="preserve">https://www.amazon.com/dp/B0BQN2NLBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC power supply, 6x SATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT: PC Power supply, 8x SATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/dp/B004OVG24Y/?coliid=I1E7VJ7AVOQT0A&amp;colid=1W550CE142KLT&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifications Mfr Part Number: EP-700PM Features: 75% Efficiency Rating Maximum Power: 700W Input: Input Voltage: 115 230 V Connectors: 1x 20+4pin Main Power Connector, 1x 4+4pin ATX Power Connector, 1x 6pin PCI-Express Connector, 1x 6+2pin PCI-Express Connector, 8x SATA Connectors, 8x 4pin Molex Connectors, 2x FDD Connectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBA SAS x8E IT mode pcie card</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ebay.com/sch/i.html?_from=R40&amp;_nkw=sas9200-8e+IT+mode&amp;_sacat=0&amp;LH_TitleDesc=0&amp;LH_PrefLoc=2&amp;_sop=15</t>
@@ -108,16 +127,16 @@
     <t xml:space="preserve">https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD</t>
   </si>
   <si>
-    <t xml:space="preserve">PC power supply, 6x SATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC Power supply, 8x SATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B004OVG24Y/?coliid=I1E7VJ7AVOQT0A&amp;colid=1W550CE142KLT&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+    <t xml:space="preserve">ALT: 12TB NAS drives (x8) -2 for RAIDZ2 parity = ~72TB, use wintelguy calc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Seagate-IronWolf-12TB-Internal-Drive/dp/B084ZV1DN6?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung T7 500GB USB3 boot/root drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/dp/B0874XJL6M/ref=twister_B0B79D1NQ6?_encoding=UTF8&amp;th=1</t>
   </si>
   <si>
     <t xml:space="preserve">UPS, 700VA/370W x8 outlets</t>
@@ -126,7 +145,7 @@
     <t xml:space="preserve">https://www.amazon.com/gp/product/B07SKX78PV/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Refurb PC w/ 4x pcie slot – Dell Optiplex 7040 SFF – 16GB RAM, Quad-core-i5 with HDMI</t>
+    <t xml:space="preserve">Turnkey Refurb PC w/ 4x pcie slot – Dell Optiplex 7040 SFF – 16GB RAM, Quad-core-i5 with HDMI</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ebay.com/itm/304041042675?_trkparms=ispr%3D5&amp;hash=item46ca4222f3:g:YVYAAOSwCJVh~cDu</t>
@@ -144,7 +163,7 @@
     <t xml:space="preserve">RAIDZ1 18000 , 5 drives, slop space, 5% free space, ~60TiB actual usable space before compression</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE RAIDZ2 (at least) with 6+ drives is strongly recommended for long-term usage</t>
+    <t xml:space="preserve">NOTE RAIDZ2 (at least) with 6+ drives is strongly recommended for long-term usage; if you buy the 5-bay enclosure it is a good complement to the HDDRACK and supports up to 8-10 drives on (1) power supply</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Total</t>
@@ -156,6 +175,9 @@
     <t xml:space="preserve">2023 Parts list for entry-level ZFS backup / fileserver</t>
   </si>
   <si>
+    <t xml:space="preserve">Info</t>
+  </si>
+  <si>
     <t xml:space="preserve">By Kingneutron</t>
   </si>
   <si>
@@ -171,6 +193,9 @@
     <t xml:space="preserve">For longer-term backup solution, go with at least RAIDZ2 at the 6+ drive mark to avoid too many disks failing during rebuild / data loss</t>
   </si>
   <si>
+    <t xml:space="preserve">The 5x18TB drive RAIDZ1 is an attempt to get the whole system under $2k for a homelab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooling the HBA PCIe card:</t>
   </si>
   <si>
@@ -181,6 +206,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dell Optiplex 7040 SFF Owners Manual with motherboard info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/r/zfs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFS forum, ask questions here</t>
   </si>
 </sst>
 </file>
@@ -191,11 +222,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,46 +249,82 @@
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -264,6 +332,7 @@
       <color rgb="FFEEEEEE"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -325,114 +394,148 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,15 +618,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>5764320</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7097400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,8 +639,452 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4764600" y="3180960"/>
-          <a:ext cx="8059680" cy="6030720"/>
+          <a:off x="4737240" y="14873760"/>
+          <a:ext cx="7097400" cy="5794560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>852120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="1122120"/>
+          <a:ext cx="988560" cy="852120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="205200"/>
+          <a:ext cx="816840" cy="917280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>837720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="2039040"/>
+          <a:ext cx="988560" cy="837720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>735120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="5072400"/>
+          <a:ext cx="988560" cy="735120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>673200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="5989320"/>
+          <a:ext cx="988560" cy="673200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>609840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="6906240"/>
+          <a:ext cx="988560" cy="609840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>936720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="7820640"/>
+          <a:ext cx="936720" cy="914760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>651240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="8735040"/>
+          <a:ext cx="651240" cy="914760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>649800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="9649440"/>
+          <a:ext cx="649800" cy="914760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="10563840"/>
+          <a:ext cx="605520" cy="914760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>655560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="11478240"/>
+          <a:ext cx="988560" cy="655560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>941760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14700240" y="12392640"/>
+          <a:ext cx="941760" cy="914760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,10 +1104,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="456.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,9 +1118,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="114.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="66.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="105.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="36.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -615,11 +1164,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="72.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="8" t="n">
         <v>98</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -632,226 +1181,282 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="72.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">B4*C4</f>
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="166.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">B5*C5</f>
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="F5" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="72.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">B6*C6</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="72.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">B7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="n">
-        <v>288</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">B8*C8</f>
-        <v>1440</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">B9*C9</f>
-        <v>40</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>70</v>
-      </c>
-      <c r="C10" s="15" t="n">
         <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>288</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>5</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">B10*C10</f>
+        <v>1440</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19" t="n">
+        <v>225</v>
+      </c>
+      <c r="C11" s="13" t="n">
         <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">B11*C11</f>
-        <v>80</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>170</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">B12*C12</f>
+        <v>70</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <f aca="false">B13*C13</f>
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>170</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">B14*C14</f>
+        <v>170</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <f aca="false">SUM(D2:D16)</f>
-        <v>1871</v>
-      </c>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="19" t="n">
-        <f aca="false">SUM(D2:D12)-D8</f>
-        <v>431</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
+      <c r="B15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">SUM(D2:D18)</f>
+        <v>1941</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="27" t="n">
+        <f aca="false">SUM(D2:D14)-SUM(D10:D11)</f>
+        <v>501</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId2" display="https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8"/>
-    <hyperlink ref="E8" r:id="rId3" display="https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD"/>
-    <hyperlink ref="E9" r:id="rId4" display="https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ"/>
-    <hyperlink ref="E12" r:id="rId5" display="https://www.ebay.com/itm/304041042675?_trkparms=ispr%3D5&amp;hash=item46ca4222f3:g:YVYAAOSwCJVh~cDu"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.amazon.com/dp/B0BQN2NLBL"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.amazon.com/Enermax-Cyberbron-ECB500AWT-Non-Modular-Warranty/dp/B08K1ZBYPZ"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://www.amazon.com/CableCreation-External-26pin-SFF-8088-Cable/dp/B07CL2V1B8"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://www.amazon.com/Toshiba-258014-Mg09aca18te-7200rpm-512mib/dp/B093Z5LFWD"/>
+    <hyperlink ref="E14" r:id="rId6" display="https://www.ebay.com/itm/304041042675?_trkparms=ispr%3D5&amp;hash=item46ca4222f3:g:YVYAAOSwCJVh~cDu"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -860,8 +1465,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -870,65 +1475,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="64.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="82.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>36</v>
+      <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>37</v>
+      <c r="A2" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>39</v>
+      <c r="A3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>40</v>
+      <c r="A5" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>41</v>
+      <c r="A6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>43</v>
+      <c r="A8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>44</v>
+      <c r="B9" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>45</v>
+      <c r="A11" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
+++ b/ZFS/zfs-parts-list-60TB-backup-raidz1.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t xml:space="preserve">60TB ZFS backup 2023.0523</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t xml:space="preserve">ZFS forum, ask questions here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCLAIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have not actually tested the Optiplex 7040 (yet) but it's on the TODO list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have most of the other equipment listed, with the exception of 18TB Toshiba drives (my max is 16TB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the Noctua fan; the power supplies are just recommendations, definitely shop around and use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this as a base to play with the numbers.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,7 +474,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -499,6 +514,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,6 +556,14 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -624,9 +651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7097400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>7097040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5794200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -640,7 +667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4737240" y="14873760"/>
-          <a:ext cx="7097400" cy="5794560"/>
+          <a:ext cx="7097040" cy="5794200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,10 +687,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>852120</xdr:rowOff>
+      <xdr:rowOff>851760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -676,8 +703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="1122120"/>
-          <a:ext cx="988560" cy="852120"/>
+          <a:off x="14699520" y="1122120"/>
+          <a:ext cx="988200" cy="851760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>816840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>816480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>916920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -713,8 +740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="205200"/>
-          <a:ext cx="816840" cy="917280"/>
+          <a:off x="14699520" y="205200"/>
+          <a:ext cx="816480" cy="916920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,10 +761,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>837720</xdr:rowOff>
+      <xdr:rowOff>837360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -750,8 +777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="2039040"/>
-          <a:ext cx="988560" cy="837720"/>
+          <a:off x="14699520" y="2039040"/>
+          <a:ext cx="988200" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -771,10 +798,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>735120</xdr:rowOff>
+      <xdr:rowOff>734760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -787,8 +814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="5072400"/>
-          <a:ext cx="988560" cy="735120"/>
+          <a:off x="14699520" y="5072400"/>
+          <a:ext cx="988200" cy="734760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,10 +835,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>673200</xdr:rowOff>
+      <xdr:rowOff>672840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,8 +851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="5989320"/>
-          <a:ext cx="988560" cy="673200"/>
+          <a:off x="14699520" y="5989320"/>
+          <a:ext cx="988200" cy="672840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,10 +872,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>609840</xdr:rowOff>
+      <xdr:rowOff>609480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -861,8 +888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="6906240"/>
-          <a:ext cx="988560" cy="609840"/>
+          <a:off x="14699520" y="6906240"/>
+          <a:ext cx="988200" cy="609480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,9 +910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>936720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>936360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -898,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="7820640"/>
-          <a:ext cx="936720" cy="914760"/>
+          <a:off x="14699520" y="7820640"/>
+          <a:ext cx="936360" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,9 +947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>651240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>650880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -935,8 +962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="8735040"/>
-          <a:ext cx="651240" cy="914760"/>
+          <a:off x="14699520" y="8735040"/>
+          <a:ext cx="650880" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,9 +984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>649800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>649440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,8 +999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="9649440"/>
-          <a:ext cx="649800" cy="914760"/>
+          <a:off x="14699520" y="9649440"/>
+          <a:ext cx="649440" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>605160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1009,8 +1036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="10563840"/>
-          <a:ext cx="605520" cy="914760"/>
+          <a:off x="14699520" y="10563840"/>
+          <a:ext cx="605160" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,10 +1057,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>655560</xdr:rowOff>
+      <xdr:rowOff>655200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="11478240"/>
-          <a:ext cx="988560" cy="655560"/>
+          <a:off x="14699520" y="11478240"/>
+          <a:ext cx="988200" cy="655200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,9 +1095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>941760</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>941400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1083,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700240" y="12392640"/>
-          <a:ext cx="941760" cy="914760"/>
+          <a:off x="14699520" y="12392640"/>
+          <a:ext cx="941400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,7 +1423,7 @@
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="0"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6"/>
@@ -1416,12 +1443,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="6" t="n">
@@ -1431,14 +1458,14 @@
       <c r="E19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="28" t="n">
         <f aca="false">SUM(D2:D14)-SUM(D10:D11)</f>
         <v>501</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1475,10 +1502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,7 +1515,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -1496,12 +1523,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -1509,12 +1536,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -1522,7 +1549,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1535,7 +1562,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1543,14 +1570,41 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35"/>
+      <c r="B16" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
